--- a/document/05_単体テスト/単体テスト規約.xlsx
+++ b/document/05_単体テスト/単体テスト規約.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{401370C6-4189-42A7-B2E8-2E2BCB4D1E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8926A5F1-503D-4704-9EFA-FB007E23D855}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{CEECA993-27A4-43DC-855B-23C9FF7097BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30EE9753-FE8F-4B69-B90D-B4E0A7CE1B34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC3A45C5-4690-469C-8FF9-98A84CEC391D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CC3A45C5-4690-469C-8FF9-98A84CEC391D}"/>
   </bookViews>
   <sheets>
     <sheet name="メソッド命名規約" sheetId="1" r:id="rId1"/>
@@ -140,14 +140,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラス単位</t>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
+    <t>とする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とする</t>
+    <t>メソッド単位</t>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -245,6 +245,476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCAF1D2-EF60-433B-8099-C48C3768E404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="1836420"/>
+          <a:ext cx="5364480" cy="5044440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テストクラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2486417B-336B-4FB4-8D61-3F7715D1700B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="2385060"/>
+          <a:ext cx="4838700" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テストメソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1C79BB-9D62-4891-AED8-056B1C141283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="3680460"/>
+          <a:ext cx="4838700" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA323B2-E364-4165-83ED-DD1C43F386B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="4922520"/>
+          <a:ext cx="4838700" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メソッド</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 線 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA222079-B3B3-46B6-87E7-D95156A5DF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383780" y="1805940"/>
+          <a:ext cx="1950720" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 97821"/>
+            <a:gd name="adj4" fmla="val -69380"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト対象クラスのメソッド１回呼ぶごとにメソッドを作る。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806AA1F-AB82-4875-A16B-E61FA7749E61}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -650,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE0963F-2723-49FB-8921-6B91A0D834E2}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -661,16 +1131,17 @@
     </row>
     <row r="4" spans="2:3" ht="35.4" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>